--- a/convención2020/cc.xlsx
+++ b/convención2020/cc.xlsx
@@ -1,29 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/GitHub/kennethbunker.github.io/tresquintos/convención2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Dropbox/GitHub/tresquintos.github.io/convención2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{22EE2782-3A7D-BC47-AB36-CCD4AB5881CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1512890-78B3-F546-943C-A5F57A140B1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15640"/>
+    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cc" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>party</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Derecha Tradicional</t>
   </si>
@@ -43,22 +50,37 @@
     <t>Frente Amplio</t>
   </si>
   <si>
-    <t>Izq. Autoritaria (PC+PRO)</t>
-  </si>
-  <si>
-    <t>Ex Frente Amplio + Otros</t>
-  </si>
-  <si>
     <t>Mixta</t>
   </si>
   <si>
-    <t xml:space="preserve">100% Elegida </t>
+    <t>Coalición/Sector</t>
+  </si>
+  <si>
+    <t>Izquierda (PC+PRO)</t>
+  </si>
+  <si>
+    <t>Otros Izquierda</t>
+  </si>
+  <si>
+    <t>Diferencia</t>
+  </si>
+  <si>
+    <t>Pura %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pura </t>
+  </si>
+  <si>
+    <t>Mixta %</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -492,7 +514,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -535,11 +557,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -579,6 +605,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -892,116 +919,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
       </c>
       <c r="B2">
         <v>57</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
+        <f>B2/155</f>
+        <v>0.36774193548387096</v>
+      </c>
+      <c r="D2">
         <v>71</v>
       </c>
+      <c r="E2" s="2">
+        <f>D2/155</f>
+        <v>0.45806451612903226</v>
+      </c>
+      <c r="F2" s="3">
+        <f>C2-E2</f>
+        <v>-9.0322580645161299E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C9" si="0">B3/155</f>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E9" si="1">D3/155</f>
+        <v>1.2903225806451613E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F9" si="2">C3-E3</f>
+        <v>1.935483870967742E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>1.935483870967742E-2</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2903225806451613E-2</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="2"/>
+        <v>6.4516129032258073E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>37</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.23870967741935484</v>
+      </c>
+      <c r="D5">
         <v>39</v>
       </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>0.25161290322580643</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.290322580645159E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>15</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="D6">
         <v>20</v>
       </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="2"/>
+        <v>-3.2258064516129031E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>7.0967741935483872E-2</v>
+      </c>
+      <c r="D7">
         <v>14</v>
       </c>
+      <c r="E7" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0322580645161285E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.9354838709677413E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>7.7419354838709681E-2</v>
+      </c>
+      <c r="D8">
         <v>12</v>
       </c>
+      <c r="E8" s="2">
+        <f t="shared" si="1"/>
+        <v>7.7419354838709681E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>9.6774193548387094E-2</v>
+      </c>
+      <c r="D9">
         <v>12</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="1"/>
+        <v>7.7419354838709681E-2</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="2"/>
+        <v>1.9354838709677413E-2</v>
       </c>
     </row>
   </sheetData>
